--- a/ConversionExcel/ConversionExcel/Executor/設定Excel.xlsx
+++ b/ConversionExcel/ConversionExcel/Executor/設定Excel.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoike\source\repos\ih4bb7\ConversionExcel\ConversionExcel\ConversionExcel\Executor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF2961F-9FF3-4820-AF74-4CB142615A92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072D878-8536-4595-97A5-1ADDB13AB697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{09F07E79-C147-42E4-BB17-1C0D8FBA18E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{09F07E79-C147-42E4-BB17-1C0D8FBA18E9}"/>
   </bookViews>
   <sheets>
     <sheet name="処理説明" sheetId="3" r:id="rId1"/>
@@ -26,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
-  <si>
-    <t>読込Excel</t>
-  </si>
-  <si>
-    <t>出力Excel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>処理内容</t>
   </si>
@@ -83,6 +72,26 @@
   </si>
   <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>読み込みExcel</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き込みExcel</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -238,17 +247,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE259BA-6D0D-4055-8378-511FAAB91ABF}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -578,62 +587,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -648,45 +657,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0459B36B-FC7E-40B1-84B4-83B5A053A9FD}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.796875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -695,10 +704,10 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -707,30 +716,30 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">

--- a/ConversionExcel/ConversionExcel/Executor/設定Excel.xlsx
+++ b/ConversionExcel/ConversionExcel/Executor/設定Excel.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072D878-8536-4595-97A5-1ADDB13AB697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73545699-F125-46F8-8B3E-62BB5DC71248}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{09F07E79-C147-42E4-BB17-1C0D8FBA18E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{09F07E79-C147-42E4-BB17-1C0D8FBA18E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="処理説明" sheetId="3" r:id="rId1"/>
-    <sheet name="実行設定" sheetId="1" r:id="rId2"/>
+    <sheet name="項目説明" sheetId="4" r:id="rId1"/>
+    <sheet name="処理説明" sheetId="3" r:id="rId2"/>
+    <sheet name="実行設定" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>処理内容</t>
   </si>
@@ -92,13 +93,544 @@
       <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルコピペ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込みシート名</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き込みシート名</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セル番地</t>
+    <rPh sb="2" eb="4">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込みExcelの指定したシートのセルの値を
+書き込みExcelの指定したシートのセルに貼り付ける</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行番号</t>
+    <rPh sb="0" eb="3">
+      <t>ギョウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行コピペ</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込みExcelの指定したシートの行の値を
+書き込みExcelの指定したシートの行に貼り付ける</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字書き込み</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したシートのセルに数字を書き込む</t>
+    <rPh sb="11" eb="13">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数書き込み</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したシートのセルに関数を書き込む</t>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=SUM(A1:A3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定Excel</t>
+    <rPh sb="0" eb="7">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>読み込みExcel</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>保存してある設定を画面上に表示することができます</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>書き込みExcelのコピーもとになるExcelを読み込ませます</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>書き込みExcel</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その名の通り、書き込むExcelです</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>指定がない場合は、</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>で新規作成されます</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その名の通り、処理内容です</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容によって引数が違うので、処理説明シートをご確認ください</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定Excelひな形ダウンロード</t>
+    <rPh sb="0" eb="7">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>　ブック名：書き込みExcel.xlsx</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>　シート名：Sheet1</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定Excelのひな形がダウンロードされます</t>
+    <rPh sb="0" eb="7">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容追加</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容のテキストボックスが追加されます</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>当然ですが、空白の場合は処理が何も行われません</t>
+    <rPh sb="0" eb="2">
+      <t>トウゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容保存</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容が保存された設定Excelがダウンロードされます</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="10" eb="17">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理実行</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理が実行されます</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実行exeダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定Excel通りに処理を実行してくれるexeが入ったzipがダウンロードされます</t>
+    <rPh sb="0" eb="7">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定Excelをzip内のexeと同階層に配置し、exeをたたくと処理が実行されます</t>
+    <rPh sb="0" eb="7">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>読み込みExcelと書き込みExcelのパスは空欄になっているのでご注意ください</t>
+    <rPh sb="0" eb="9">
+      <t>ヨミコミエクセル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +657,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +709,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -213,13 +771,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -252,12 +821,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,15 +1177,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DBADB-625D-4815-BC4F-66B23E3771DA}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="20"/>
+      <c r="B5" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="20"/>
+      <c r="B6" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="20"/>
+      <c r="B7" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="21"/>
+      <c r="B8" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="20"/>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="21"/>
+      <c r="B11" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="21"/>
+      <c r="B15" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="21"/>
+      <c r="B18" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE259BA-6D0D-4055-8378-511FAAB91ABF}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="8.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.8984375" style="1" customWidth="1"/>
     <col min="8" max="9" width="8.796875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -623,7 +1382,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -642,22 +1401,178 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0459B36B-FC7E-40B1-84B4-83B5A053A9FD}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>

--- a/ConversionExcel/ConversionExcel/Executor/設定Excel.xlsx
+++ b/ConversionExcel/ConversionExcel/Executor/設定Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73545699-F125-46F8-8B3E-62BB5DC71248}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B58DB3F-8EBB-48FE-9AAF-B2AACD1C37A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{09F07E79-C147-42E4-BB17-1C0D8FBA18E9}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>処理内容</t>
   </si>
@@ -95,7 +95,427 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>セルコピペ</t>
+    <t>数字書き込み</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したシートのセルに数字を書き込む</t>
+    <rPh sb="11" eb="13">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数書き込み</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定Excel</t>
+    <rPh sb="0" eb="7">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>読み込みExcel</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>保存してある設定を画面上に表示することができます</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>書き込みExcelのコピーもとになるExcelを読み込ませます</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>書き込みExcel</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その名の通り、書き込むExcelです</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>指定がない場合は、</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>で新規作成されます</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その名の通り、処理内容です</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容によって引数が違うので、処理説明シートをご確認ください</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定Excelひな形ダウンロード</t>
+    <rPh sb="0" eb="7">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>　ブック名：書き込みExcel.xlsx</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>　シート名：Sheet1</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定Excelのひな形がダウンロードされます</t>
+    <rPh sb="0" eb="7">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容追加</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容のテキストボックスが追加されます</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>当然ですが、空白の場合は処理が何も行われません</t>
+    <rPh sb="0" eb="2">
+      <t>トウゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容保存</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理内容が保存された設定Excelがダウンロードされます</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="10" eb="17">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理実行</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理が実行されます</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実行exeダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定Excel通りに処理を実行してくれるexeが入ったzipがダウンロードされます</t>
+    <rPh sb="0" eb="7">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設定Excelをzip内のexeと同階層に配置し、exeをたたくと処理が実行されます</t>
+    <rPh sb="0" eb="7">
+      <t>セッテイエクセル</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>読み込みExcelと書き込みExcelのパスは空欄になっているのでご注意ください</t>
+    <rPh sb="0" eb="9">
+      <t>ヨミコミエクセル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>範囲コピペ</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -129,501 +549,60 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>読み込みExcelの指定したシートのセルの値を
-書き込みExcelの指定したシートのセルに貼り付ける</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>行番号</t>
-    <rPh sb="0" eb="3">
-      <t>ギョウバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>行コピペ</t>
-    <rPh sb="0" eb="1">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>読み込みExcelの指定したシートの行の値を
-書き込みExcelの指定したシートの行に貼り付ける</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数字書き込み</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定したシートのセルに数字を書き込む</t>
-    <rPh sb="11" eb="13">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>関数書き込み</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>関数</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定したシートのセルに関数を書き込む</t>
+    <t>A2:B3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUM(A1:A3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したシートのセルに関数を書き込む
+※=は不要</t>
     <rPh sb="11" eb="13">
       <t>カンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>=SUM(A1:A3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設定Excel</t>
-    <rPh sb="0" eb="7">
-      <t>セッテイエクセル</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>読み込みExcel</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>保存してある設定を画面上に表示することができます</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ガメンジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>書き込みExcelのコピーもとになるExcelを読み込ませます</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
+    <rPh sb="22" eb="24">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したシートの指定した範囲をコピーし、貼り付ける
+行コピーや列コピーもこちらで代用する</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
     </rPh>
     <rPh sb="26" eb="27">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>書き込みExcel</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その名の通り、書き込むExcelです</t>
-    <rPh sb="2" eb="3">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>指定がない場合は、</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>で新規作成されます</t>
-    <rPh sb="1" eb="3">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理内容</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その名の通り、処理内容です</t>
-    <rPh sb="2" eb="3">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理内容によって引数が違うので、処理説明シートをご確認ください</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>設定Excelひな形ダウンロード</t>
-    <rPh sb="0" eb="7">
-      <t>セッテイエクセル</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>　ブック名：書き込みExcel.xlsx</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>　シート名：Sheet1</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>設定Excelのひな形がダウンロードされます</t>
-    <rPh sb="0" eb="7">
-      <t>セッテイエクセル</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理内容追加</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理内容のテキストボックスが追加されます</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>当然ですが、空白の場合は処理が何も行われません</t>
-    <rPh sb="0" eb="2">
-      <t>トウゼン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理内容保存</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理内容が保存された設定Excelがダウンロードされます</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="10" eb="17">
-      <t>セッテイエクセル</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理実行</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理が実行されます</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>実行exeダウンロード</t>
-    <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>設定Excel通りに処理を実行してくれるexeが入ったzipがダウンロードされます</t>
-    <rPh sb="0" eb="7">
-      <t>セッテイエクセル</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>設定Excelをzip内のexeと同階層に配置し、exeをたたくと処理が実行されます</t>
-    <rPh sb="0" eb="7">
-      <t>セッテイエクセル</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カイソウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>読み込みExcelと書き込みExcelのパスは空欄になっているのでご注意ください</t>
-    <rPh sb="0" eb="9">
-      <t>ヨミコミエクセル</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ダイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -788,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -856,6 +835,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1191,127 +1173,127 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="20"/>
       <c r="B5" s="15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="20"/>
       <c r="B6" s="15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="20"/>
       <c r="B7" s="15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="21"/>
       <c r="B8" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="20"/>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="21"/>
       <c r="B11" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="18" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="21"/>
       <c r="B15" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="19" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="21"/>
       <c r="B18" s="16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE259BA-6D0D-4055-8378-511FAAB91ABF}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1321,7 @@
     <col min="3" max="3" width="8.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.796875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -1401,27 +1383,25 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="24" t="s">
-        <v>24</v>
+      <c r="G4" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1434,34 +1414,30 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="24" t="s">
-        <v>27</v>
+      <c r="G6" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1471,35 +1447,35 @@
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="10">
-        <v>6</v>
-      </c>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="22" t="s">
-        <v>29</v>
+      <c r="G8" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1510,58 +1486,42 @@
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7"/>
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="23"/>
+      <c r="G10" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
+    <mergeCell ref="G8:G10"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
